--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_21_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_21_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284268.3475264958</v>
+        <v>339099.2129754184</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347742</v>
+        <v>9584464.643054398</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8778504.334061949</v>
+        <v>8343623.815691861</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328794</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V2" t="n">
-        <v>123.0172992876057</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="T3" t="n">
-        <v>38.34834368612516</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>21.41405905276474</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>98.74883103803279</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>146.8461210887086</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U5" t="n">
-        <v>146.8461210887086</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V5" t="n">
-        <v>129.3420634549346</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E6" t="n">
-        <v>129.3420634549346</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.74883103803279</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>21.41405905276482</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>127.429877995854</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.396723986041431</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>187.5255871663199</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4.724103750052183</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>127.429877995854</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>19.59281863505174</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>177.9920730809234</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>161.5232781970762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>80.20124542884618</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851002</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>9.854692234071464</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>12.43222329791875</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>326.9186139322088</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>151.8084520815076</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>120.966121684056</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414548</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>159.4830798759219</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>81.77200357366353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>182.1613852827363</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2901074925139983</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>75.31950762206702</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>59.50286836346302</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>200.1678679309898</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>346.4719254930612</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>72.08750066492874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>20.75019519330568</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>135.9120781262766</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>289.064638830193</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>20.95866062610969</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>244.8448317866255</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>78.86438712404006</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U27" t="n">
         <v>225.7871683969286</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>107.0704956909094</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>20.75019519330557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>29.71145624902096</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>133.0485208079597</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>155.5594962886089</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>15.31548816222207</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>203.1002079700021</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -3088,16 +3088,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>14.93663403485209</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G33" t="n">
         <v>134.9994691657081</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>20.95866062610961</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>220.703500464985</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>103.6556327113222</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>334.9753613846892</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>134.5916654001853</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>20.45193237784166</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>79.03187764303514</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>76.01103075490104</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>204.9239163863943</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>114.1418776004533</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>62.3575491464568</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>65.72456219185356</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>58.28185552386351</v>
       </c>
       <c r="U43" t="n">
-        <v>124.0533949789331</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>234.8865272280676</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>253.7910016824698</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>82.2895372226439</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>83.32727861849585</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.13634036116618</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C2" t="n">
-        <v>18.13634036116618</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D2" t="n">
-        <v>18.13634036116618</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E2" t="n">
-        <v>18.13634036116618</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F2" t="n">
-        <v>18.13634036116618</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G2" t="n">
-        <v>18.13634036116618</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H2" t="n">
-        <v>18.13634036116618</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I2" t="n">
-        <v>18.13634036116618</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779183017</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458395</v>
+        <v>75.16870670940369</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066255</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588559</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735305</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3844843548345</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="U2" t="n">
-        <v>587.3844843548345</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="V2" t="n">
-        <v>463.1245860845257</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W2" t="n">
-        <v>463.1245860845257</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X2" t="n">
-        <v>314.7951708434059</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.465755602286</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251.9899531795391</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="C3" t="n">
-        <v>251.9899531795391</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D3" t="n">
-        <v>251.9899531795391</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E3" t="n">
-        <v>251.9899531795391</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F3" t="n">
-        <v>251.9899531795391</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G3" t="n">
-        <v>114.3717018502035</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616815</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415666</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M3" t="n">
-        <v>286.538206975247</v>
+        <v>173.5536753522244</v>
       </c>
       <c r="N3" t="n">
-        <v>431.9158668530686</v>
+        <v>265.2919751484357</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1875401335673</v>
+        <v>355.9587375475837</v>
       </c>
       <c r="P3" t="n">
-        <v>586.7735145200479</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548345</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S3" t="n">
-        <v>587.3844843548345</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="T3" t="n">
-        <v>548.6487836617788</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="U3" t="n">
-        <v>548.6487836617788</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="V3" t="n">
-        <v>548.6487836617788</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W3" t="n">
-        <v>548.6487836617788</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="X3" t="n">
-        <v>548.6487836617788</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="Y3" t="n">
-        <v>400.319368420659</v>
+        <v>183.4578794006468</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L4" t="n">
-        <v>14.1259580354324</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510269</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T4" t="n">
-        <v>33.37805236665703</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.74768968709669</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.74768968709669</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="C5" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D5" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E5" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F5" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G5" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H5" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779182994</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458394</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066255</v>
+        <v>202.4209174083931</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588561</v>
+        <v>313.4124509320676</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735306</v>
+        <v>404.8833474416799</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548346</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S5" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T5" t="n">
-        <v>439.0550691137147</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="U5" t="n">
-        <v>290.7256538725949</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="V5" t="n">
-        <v>160.0771049282165</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="W5" t="n">
-        <v>160.0771049282165</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="X5" t="n">
-        <v>160.0771049282165</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.74768968709669</v>
+        <v>221.9604180251015</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142.396238631475</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="C6" t="n">
-        <v>142.396238631475</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="D6" t="n">
-        <v>142.396238631475</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="E6" t="n">
-        <v>11.74768968709669</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="F6" t="n">
-        <v>11.74768968709669</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="G6" t="n">
-        <v>11.74768968709669</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="H6" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616817</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L6" t="n">
-        <v>150.9598290415667</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M6" t="n">
-        <v>286.5382069752471</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N6" t="n">
-        <v>392.9114626603238</v>
+        <v>287.4309731640697</v>
       </c>
       <c r="O6" t="n">
-        <v>511.1831359408226</v>
+        <v>387.4830745953196</v>
       </c>
       <c r="P6" t="n">
-        <v>586.7735145200479</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548345</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S6" t="n">
-        <v>587.3844843548345</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="T6" t="n">
-        <v>587.3844843548345</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="U6" t="n">
-        <v>587.3844843548345</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="V6" t="n">
-        <v>587.3844843548345</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="W6" t="n">
-        <v>439.0550691137147</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="X6" t="n">
-        <v>290.7256538725949</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="Y6" t="n">
-        <v>290.7256538725949</v>
+        <v>221.9604180251015</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.74768968709669</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="C7" t="n">
-        <v>11.74768968709669</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="D7" t="n">
-        <v>11.74768968709669</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="E7" t="n">
-        <v>11.74768968709669</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="F7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709669</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L7" t="n">
-        <v>14.12595803543243</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510274</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="O7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V7" t="n">
-        <v>33.37805236665712</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W7" t="n">
-        <v>11.74768968709669</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="X7" t="n">
-        <v>11.74768968709669</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.74768968709669</v>
+        <v>12.63101027343186</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.841617006275</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="C8" t="n">
-        <v>204.4218319897903</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="D8" t="n">
-        <v>15.00204697330559</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="E8" t="n">
-        <v>15.00204697330559</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="F8" t="n">
-        <v>15.00204697330559</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>51.79022575657168</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>138.5837562783352</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>266.8277197508551</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123826</v>
+        <v>401.7606130061291</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R8" t="n">
-        <v>743.6410113056417</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S8" t="n">
-        <v>583.2614020227597</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T8" t="n">
-        <v>393.841617006275</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="U8" t="n">
-        <v>393.841617006275</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="V8" t="n">
-        <v>393.841617006275</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="W8" t="n">
-        <v>393.841617006275</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="X8" t="n">
-        <v>393.841617006275</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="Y8" t="n">
-        <v>393.841617006275</v>
+        <v>286.4275829042857</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>177.0711716460756</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="C9" t="n">
-        <v>177.0711716460756</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="D9" t="n">
-        <v>177.0711716460756</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="E9" t="n">
-        <v>177.0711716460756</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F9" t="n">
-        <v>30.53661367296053</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G9" t="n">
-        <v>30.53661367296053</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H9" t="n">
-        <v>30.53661367296053</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I9" t="n">
-        <v>30.53661367296053</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>110.1287797974577</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>244.4944128384901</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546601</v>
+        <v>386.8913402620005</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476348</v>
+        <v>504.0242257254407</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R9" t="n">
-        <v>745.3305266955298</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S9" t="n">
-        <v>745.3305266955298</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T9" t="n">
-        <v>745.3305266955298</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U9" t="n">
-        <v>555.910741679045</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="V9" t="n">
-        <v>366.4909566625603</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="W9" t="n">
-        <v>366.4909566625603</v>
+        <v>449.9835782035085</v>
       </c>
       <c r="X9" t="n">
-        <v>366.4909566625603</v>
+        <v>449.9835782035085</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.0711716460756</v>
+        <v>449.9835782035085</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230175</v>
+        <v>13.35570305153742</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>18.49252890534889</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="R10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="S10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="T10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="U10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1632.511388127729</v>
+        <v>1098.886464691608</v>
       </c>
       <c r="C11" t="n">
-        <v>1263.548871187317</v>
+        <v>1098.886464691608</v>
       </c>
       <c r="D11" t="n">
-        <v>905.2831725805665</v>
+        <v>919.0964918825944</v>
       </c>
       <c r="E11" t="n">
-        <v>519.4949199823222</v>
+        <v>533.3082392843501</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>1098.886464691608</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.266054653544</v>
+        <v>1098.886464691608</v>
       </c>
       <c r="Y11" t="n">
-        <v>2019.11122819185</v>
+        <v>1098.886464691608</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>700.0609647479939</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>525.6079354668669</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>444.5965764478304</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>285.3591214423749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>1538.12545746675</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1538.12545746675</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1283.888100738549</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1076.036600533016</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>868.276301768062</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>364.5418494269122</v>
+        <v>520.289347040599</v>
       </c>
       <c r="C13" t="n">
-        <v>364.5418494269122</v>
+        <v>351.3531641126921</v>
       </c>
       <c r="D13" t="n">
-        <v>214.4252100145765</v>
+        <v>201.2365247003563</v>
       </c>
       <c r="E13" t="n">
-        <v>66.5121164321834</v>
+        <v>53.32343111796322</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962283</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181845</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181845</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181845</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U13" t="n">
-        <v>631.7841389438281</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V13" t="n">
-        <v>377.0996507379413</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W13" t="n">
-        <v>364.5418494269122</v>
+        <v>520.289347040599</v>
       </c>
       <c r="X13" t="n">
-        <v>364.5418494269122</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Y13" t="n">
-        <v>364.5418494269122</v>
+        <v>520.289347040599</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1891.353293732296</v>
+        <v>907.315896731747</v>
       </c>
       <c r="C14" t="n">
-        <v>1561.13247157855</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="D14" t="n">
-        <v>1202.866772971799</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="E14" t="n">
-        <v>817.078520373555</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410103</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V14" t="n">
-        <v>2630.721789066532</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W14" t="n">
-        <v>2277.953133796418</v>
+        <v>1684.05506877168</v>
       </c>
       <c r="X14" t="n">
-        <v>2277.953133796418</v>
+        <v>1684.05506877168</v>
       </c>
       <c r="Y14" t="n">
-        <v>2277.953133796418</v>
+        <v>1293.915736795869</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>706.0604236219174</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>583.8724219208507</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>434.9380122595995</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>275.700557254144</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1336.36461757572</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1082.127260847518</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>874.2757606419855</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>874.2757606419855</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>351.3531641126922</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>351.3531641126922</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>351.3531641126922</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>204.4632166147818</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R16" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S16" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T16" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U16" t="n">
-        <v>631.7841389438286</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V16" t="n">
-        <v>377.0996507379417</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W16" t="n">
-        <v>377.0996507379417</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X16" t="n">
-        <v>149.1100998399244</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218343</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1590.514489367197</v>
+        <v>1405.526882613612</v>
       </c>
       <c r="C17" t="n">
-        <v>1221.551972426786</v>
+        <v>1036.564365673201</v>
       </c>
       <c r="D17" t="n">
-        <v>863.2862738200351</v>
+        <v>678.2986670664502</v>
       </c>
       <c r="E17" t="n">
-        <v>477.498021221791</v>
+        <v>292.510414468206</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.312783737945</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U17" t="n">
-        <v>3071.782307011781</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V17" t="n">
-        <v>2740.71941966821</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W17" t="n">
-        <v>2740.71941966821</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="X17" t="n">
-        <v>2367.25366140713</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="Y17" t="n">
-        <v>1977.114329431319</v>
+        <v>1792.126722677734</v>
       </c>
     </row>
     <row r="18">
@@ -5570,70 +5570,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>739.2385409879452</v>
+        <v>289.4823746594544</v>
       </c>
       <c r="C19" t="n">
-        <v>739.2385409879452</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D19" t="n">
-        <v>589.1219015756094</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E19" t="n">
-        <v>441.2088079932163</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>294.3188604953059</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G19" t="n">
-        <v>126.6160238700249</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H19" t="n">
-        <v>126.6160238700249</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V19" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="W19" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="X19" t="n">
-        <v>920.8870058181849</v>
+        <v>471.1308394896942</v>
       </c>
       <c r="Y19" t="n">
-        <v>920.8870058181849</v>
+        <v>471.1308394896942</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1959.379186075721</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C20" t="n">
-        <v>1590.416669135309</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923659</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W20" t="n">
-        <v>2332.8449443368</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X20" t="n">
-        <v>1959.379186075721</v>
+        <v>2038.27216035714</v>
       </c>
       <c r="Y20" t="n">
-        <v>1959.379186075721</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.0669976776956</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C22" t="n">
-        <v>434.1308147497887</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K22" t="n">
         <v>176.6457242372933</v>
@@ -5919,43 +5919,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R22" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S22" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T22" t="n">
-        <v>831.0565485757129</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="U22" t="n">
-        <v>831.0565485757129</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="V22" t="n">
-        <v>831.0565485757129</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="W22" t="n">
-        <v>831.0565485757129</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="X22" t="n">
-        <v>603.0669976776956</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="Y22" t="n">
-        <v>603.0669976776956</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2124.186667467494</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C23" t="n">
-        <v>1755.224150527082</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>769.4825048886526</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>769.4825048886526</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>358.496600099045</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V23" t="n">
-        <v>2884.252265792696</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W23" t="n">
-        <v>2884.252265792696</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X23" t="n">
-        <v>2510.786507531616</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y23" t="n">
-        <v>2510.786507531616</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="24">
@@ -6065,10 +6065,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.6824807009811</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>87.6824807009811</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>87.6824807009811</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>87.6824807009811</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>377.0996507379417</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>87.6824807009811</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X25" t="n">
-        <v>87.6824807009811</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.6824807009811</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1311.909787855437</v>
+        <v>1867.116698829639</v>
       </c>
       <c r="C26" t="n">
-        <v>942.9472709150252</v>
+        <v>1498.154181889227</v>
       </c>
       <c r="D26" t="n">
-        <v>942.9472709150252</v>
+        <v>1139.888483282477</v>
       </c>
       <c r="E26" t="n">
-        <v>557.1590183167809</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>146.1731135271734</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
         <v>66.5121164321834</v>
@@ -6226,10 +6226,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y26" t="n">
-        <v>1698.509627919559</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="27">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>342.3669689068678</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C28" t="n">
-        <v>342.3669689068678</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>342.3669689068678</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>342.3669689068678</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
         <v>234.2149530574644</v>
@@ -6417,19 +6417,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>631.7841389438285</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="V28" t="n">
-        <v>631.7841389438285</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="W28" t="n">
-        <v>342.3669689068678</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="X28" t="n">
-        <v>342.3669689068678</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="Y28" t="n">
-        <v>342.3669689068678</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1611.504630229388</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C29" t="n">
-        <v>1242.542113288976</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D29" t="n">
-        <v>884.2764146822258</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>498.4881620839815</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
         <v>66.5121164321834</v>
@@ -6463,16 +6463,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2388.243802269321</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1998.10447029351</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361.3151575124868</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C31" t="n">
         <v>361.3151575124868</v>
@@ -6657,16 +6657,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W31" t="n">
-        <v>376.7853475753374</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X31" t="n">
-        <v>361.3151575124868</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y31" t="n">
-        <v>361.3151575124868</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.514489367197</v>
+        <v>1795.666214589422</v>
       </c>
       <c r="C32" t="n">
-        <v>1221.551972426786</v>
+        <v>1426.70369764901</v>
       </c>
       <c r="D32" t="n">
-        <v>863.2862738200351</v>
+        <v>1068.43799904226</v>
       </c>
       <c r="E32" t="n">
-        <v>477.498021221791</v>
+        <v>682.6497464440154</v>
       </c>
       <c r="F32" t="n">
-        <v>66.5121164321834</v>
+        <v>271.6638416544078</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>271.6638416544078</v>
       </c>
       <c r="H32" t="n">
         <v>66.5121164321834</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V32" t="n">
-        <v>2755.806928794324</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W32" t="n">
-        <v>2740.71941966821</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X32" t="n">
-        <v>2367.25366140713</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y32" t="n">
-        <v>1977.114329431319</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
         <v>312.3844025601599</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.68248070098099</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C34" t="n">
-        <v>87.68248070098099</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D34" t="n">
-        <v>87.68248070098099</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>87.68248070098099</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6891,19 +6891,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>631.7841389438285</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="V34" t="n">
-        <v>377.0996507379416</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="W34" t="n">
-        <v>87.68248070098099</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="X34" t="n">
-        <v>87.68248070098099</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.68248070098099</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1252.833343223197</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C35" t="n">
-        <v>883.8708262827856</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D35" t="n">
-        <v>883.8708262827856</v>
+        <v>790.6593199240531</v>
       </c>
       <c r="E35" t="n">
-        <v>779.1681669784198</v>
+        <v>404.8710673258088</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V35" t="n">
-        <v>2755.806928794325</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2403.038273524211</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X35" t="n">
-        <v>2029.572515263131</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y35" t="n">
-        <v>1639.433183287319</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>530.2513404403938</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="C37" t="n">
-        <v>361.3151575124869</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124869</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
         <v>176.6457242372933</v>
@@ -7104,43 +7104,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>784.9358286462807</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U37" t="n">
-        <v>784.9358286462807</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="V37" t="n">
-        <v>530.2513404403938</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="W37" t="n">
-        <v>530.2513404403938</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="X37" t="n">
-        <v>530.2513404403938</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="Y37" t="n">
-        <v>530.2513404403938</v>
+        <v>678.4618728343355</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1712.341567565138</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C38" t="n">
-        <v>1343.379050624726</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D38" t="n">
-        <v>985.1133520179758</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E38" t="n">
-        <v>599.3250994197315</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F38" t="n">
-        <v>188.3391946301239</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>188.3391946301239</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
@@ -7186,10 +7186,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296686</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3248.827002664826</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3042.849255049048</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>3042.849255049048</v>
       </c>
       <c r="V38" t="n">
-        <v>3215.315153136266</v>
+        <v>2711.786367705477</v>
       </c>
       <c r="W38" t="n">
-        <v>2862.546497866151</v>
+        <v>2359.017712435363</v>
       </c>
       <c r="X38" t="n">
-        <v>2489.080739605071</v>
+        <v>1985.551954174283</v>
       </c>
       <c r="Y38" t="n">
-        <v>2098.94140762926</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>532.2446860521933</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C40" t="n">
-        <v>532.2446860521933</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D40" t="n">
-        <v>382.1280466398576</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E40" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
@@ -7368,16 +7368,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>713.893150882433</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W40" t="n">
-        <v>713.893150882433</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X40" t="n">
-        <v>713.893150882433</v>
+        <v>805.5921799591412</v>
       </c>
       <c r="Y40" t="n">
-        <v>713.893150882433</v>
+        <v>584.799600815611</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1295.236214140706</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>926.2736972002947</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>926.2736972002947</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>540.4854446020504</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>129.4995398124428</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X41" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y41" t="n">
-        <v>1681.836054204828</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>382.1280466398576</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>382.1280466398576</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>382.1280466398576</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7578,43 +7578,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>507.4345062145375</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="U43" t="n">
-        <v>382.1280466398576</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="V43" t="n">
-        <v>382.1280466398576</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="W43" t="n">
-        <v>382.1280466398576</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X43" t="n">
-        <v>382.1280466398576</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y43" t="n">
-        <v>382.1280466398576</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1261.532988317206</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C44" t="n">
-        <v>892.5704713767946</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D44" t="n">
-        <v>892.5704713767946</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
         <v>66.51211643218343</v>
@@ -7648,19 +7648,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7684,16 +7684,16 @@
         <v>2961.784676410103</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796418</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X44" t="n">
-        <v>1904.487375535338</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y44" t="n">
-        <v>1648.132828381328</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218343</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>296.5228085994311</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>149.6328611015207</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218343</v>
@@ -7833,25 +7833,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>729.2011216450114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>729.2011216450114</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U46" t="n">
-        <v>440.098254770655</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V46" t="n">
-        <v>355.929286469144</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="W46" t="n">
-        <v>66.51211643218343</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="X46" t="n">
-        <v>66.51211643218343</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.51211643218343</v>
+        <v>444.4359021818242</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747719</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,22 +22555,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>289.2654207831596</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327425</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880639</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V2" t="n">
-        <v>204.7349591825292</v>
+        <v>246.1329711362937</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>222.8849795897604</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.391817567345</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.68706256115871</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>91.08921165447451</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>54.78011627553656</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354543</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827334</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345809</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2242511465658</v>
+        <v>60.73615356033713</v>
       </c>
       <c r="T3" t="n">
-        <v>157.3767752233994</v>
+        <v>103.5325490100188</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>58.83657468859573</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,49 +22719,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818782</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K4" t="n">
-        <v>21.7289579877603</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474393</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P4" t="n">
-        <v>26.04487966482527</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.1813952927055</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U4" t="n">
-        <v>264.8546020876779</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>283.9850106254478</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>253.1602316460838</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>413.3887043444878</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327425</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328738</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880636</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T5" t="n">
-        <v>67.2382049840831</v>
+        <v>102.6045092346993</v>
       </c>
       <c r="U5" t="n">
-        <v>104.3348437827356</v>
+        <v>139.079870129261</v>
       </c>
       <c r="V5" t="n">
-        <v>198.4101950152003</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>239.391817567345</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.68706256115871</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>35.33240543971505</v>
       </c>
       <c r="E6" t="n">
-        <v>28.30301700046638</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>3.595982216019308</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354542</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827331</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,28 +22907,28 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345808</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2242511465658</v>
+        <v>40.54833922112491</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>83.92423484016749</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>104.848862072211</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>58.92686411476885</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22953,58 +22953,58 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>141.7956705341277</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818781</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K7" t="n">
-        <v>21.72895798776027</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474364</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P7" t="n">
-        <v>26.04487966482526</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.18139529270549</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>265.1089392838262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,28 +23023,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>279.4461677458575</v>
       </c>
       <c r="G8" t="n">
-        <v>413.097833230058</v>
+        <v>268.578016356852</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.091680627731961</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.9757828529239987</v>
       </c>
       <c r="R8" t="n">
-        <v>70.68499503062235</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T8" t="n">
-        <v>25.91829388988691</v>
+        <v>69.44872435019244</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>183.0771017990926</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>21.85802697882505</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>28.03334231727345</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>12.96992378435866</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>23.23168261818574</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>67.70879187841102</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>124.2651051650656</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>147.6540024635761</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825418</v>
+        <v>61.99638167634127</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>22.19986892380261</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,25 +23217,25 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>26.53509868619516</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>74.52079753307214</v>
       </c>
       <c r="R10" t="n">
-        <v>80.60642335625593</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>176.6909685397596</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.7146604589774</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>67.24382013579257</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H12" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>135.5663557888598</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>274.0907750386722</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>38.35427783879879</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>197.4325166359054</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>51.74237730425972</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>6.968421235009913</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.8126497784313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>224.7146604589751</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.6278626471061</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>91.92731347656081</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>36.84955204637507</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>149.0731007864233</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>23.25917518540786</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>76.52797235328362</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>198.7987540828635</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>218.7709634944063</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>121.8570868232605</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>124.4623873968216</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24420,13 +24420,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>214.4349708898184</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>137.0855382856362</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>332.0573385294134</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>38.35055233202189</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>265.4616430123073</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>353.0223854144596</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>273.8275249337518</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>11.68732481001896</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24897,16 +24897,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>210.3941672268151</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>91.50755641731831</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>334.3043346825609</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>124.4623873968216</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25131,13 +25131,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>65.50833774062789</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>278.2747373609396</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>71.90068435702227</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25365,13 +25365,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>84.95728387598393</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>265.7599058277712</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>215.5758867442853</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>33.17673103327479</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25608,16 +25608,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>47.21372693743368</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5677777885839</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>348.5641765069967</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>320.5133764642</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,13 +25836,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>161.2670937523057</v>
       </c>
       <c r="U43" t="n">
-        <v>162.1584432266798</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>130.3863645429399</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.4469369735838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>83.73627103638432</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26073,19 +26073,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>168.8103647053321</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>409992.2446053786</v>
+        <v>362616.6230072703</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>409992.2446053785</v>
+        <v>379382.0342027748</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441595.0580613399</v>
+        <v>408111.9599248166</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>871958.5900271861</v>
+        <v>684371.1989135398</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>871958.5900271866</v>
+        <v>684371.1989135396</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271866</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271866</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>871958.5900271862</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.590027186</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>871958.590027186</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131506.9463828572</v>
+        <v>116310.9922853508</v>
       </c>
       <c r="C2" t="n">
-        <v>131506.9463828572</v>
+        <v>121688.5770084371</v>
       </c>
       <c r="D2" t="n">
-        <v>141643.6978687317</v>
+        <v>130903.8362022996</v>
       </c>
       <c r="E2" t="n">
-        <v>279684.830763437</v>
+        <v>219515.2902175503</v>
       </c>
       <c r="F2" t="n">
-        <v>279684.8307634371</v>
+        <v>219515.2902175503</v>
       </c>
       <c r="G2" t="n">
         <v>279684.8307634371</v>
@@ -26334,25 +26334,25 @@
         <v>279684.830763437</v>
       </c>
       <c r="I2" t="n">
+        <v>279684.830763437</v>
+      </c>
+      <c r="J2" t="n">
         <v>279684.8307634371</v>
       </c>
-      <c r="J2" t="n">
-        <v>279684.830763437</v>
-      </c>
       <c r="K2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634371</v>
       </c>
       <c r="L2" t="n">
-        <v>279684.830763437</v>
+        <v>279684.8307634369</v>
       </c>
       <c r="M2" t="n">
         <v>279684.830763437</v>
       </c>
       <c r="N2" t="n">
+        <v>279684.830763437</v>
+      </c>
+      <c r="O2" t="n">
         <v>279684.8307634371</v>
-      </c>
-      <c r="O2" t="n">
-        <v>279684.830763437</v>
       </c>
       <c r="P2" t="n">
         <v>279684.8307634371</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751304</v>
+        <v>471995.0992489056</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23151.37050443034</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074443</v>
+        <v>38987.52889819869</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336675</v>
+        <v>394942.2080289241</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>262827.3641644186</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613399</v>
+        <v>24245.22799179786</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5005.218442393711</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904871</v>
+        <v>8241.274813353699</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>99043.5879329364</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69617.08519290936</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1921479602628</v>
+        <v>67.14558386063672</v>
       </c>
       <c r="C4" t="n">
-        <v>107.1921479602629</v>
+        <v>81.37067654131214</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>105.5521581027501</v>
       </c>
       <c r="E4" t="n">
-        <v>584.646989006123</v>
+        <v>384.3219252469135</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061231</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.1197790209</v>
+        <v>49237.11966583622</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.1197790209</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>53538.12534878444</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26505,7 +26505,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-477765.142037458</v>
+        <v>-406356.7943303515</v>
       </c>
       <c r="C6" t="n">
-        <v>64890.29293767233</v>
+        <v>46295.67344995518</v>
       </c>
       <c r="D6" t="n">
-        <v>28522.23147926672</v>
+        <v>36990.04793844889</v>
       </c>
       <c r="E6" t="n">
-        <v>-426414.7957987995</v>
+        <v>-228144.0596041092</v>
       </c>
       <c r="F6" t="n">
-        <v>200719.8478348681</v>
+        <v>166798.1484248148</v>
       </c>
       <c r="G6" t="n">
-        <v>200719.847834868</v>
+        <v>-58440.92048919787</v>
       </c>
       <c r="H6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752208</v>
       </c>
       <c r="I6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752206</v>
       </c>
       <c r="J6" t="n">
-        <v>162298.441328734</v>
+        <v>180141.215683423</v>
       </c>
       <c r="K6" t="n">
-        <v>200719.8478348679</v>
+        <v>199381.225232827</v>
       </c>
       <c r="L6" t="n">
-        <v>190424.2410858193</v>
+        <v>196145.1688618668</v>
       </c>
       <c r="M6" t="n">
-        <v>40263.40596699055</v>
+        <v>105342.8557422843</v>
       </c>
       <c r="N6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752206</v>
       </c>
       <c r="O6" t="n">
-        <v>200719.8478348679</v>
+        <v>134769.3584823114</v>
       </c>
       <c r="P6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752207</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572208</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572209</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>509.8291662011503</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.710664537684</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887086</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E4" t="n">
+        <v>542.1149567261632</v>
+      </c>
+      <c r="F4" t="n">
+        <v>542.1149567261632</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26822,13 +26822,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572208</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.52443243433669</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568363</v>
+        <v>33.71341500264811</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803935</v>
+        <v>343.8814983365337</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.0660360556144</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761124</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359727</v>
+        <v>397.4398000551209</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>289.2864986761299</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887083</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761124</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235973</v>
+        <v>397.4398000551211</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>289.28649867613</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761124</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>397.4398000551209</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>289.2864986761299</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903399</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877944</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766335</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154184</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871684</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270567</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N2" t="n">
-        <v>367.321225669551</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961053</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656776</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744496</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253257</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611125</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339632</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645457</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383934</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986736</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358323</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206853</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720419</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914128</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P3" t="n">
-        <v>170.929937097644</v>
+        <v>148.8239625747597</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.5989153332807</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050586</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297035</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055015</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179391</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864955</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793585</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120829</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421834</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843223</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674034</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910842</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113011</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825128</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903399</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877944</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766338</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154184</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871685</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270568</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N5" t="n">
-        <v>367.3212256695511</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961054</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656776</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744496</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253258</v>
+        <v>120.23238615567</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611126</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339634</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.024098030879797</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645457</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986736</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358323</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206854</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N6" t="n">
-        <v>238.7894450985623</v>
+        <v>189.1706736602747</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914129</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711235</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332808</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050587</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297036</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055016</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179393</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864957</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793586</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J7" t="n">
-        <v>65.2856027012083</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421835</v>
+        <v>127.6458523786935</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843224</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674035</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910842</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113012</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825129</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.049564487240804</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>20.99010230495489</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>79.01583489435116</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>173.9542238989543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>260.7122886438576</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>323.4366478202534</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>359.8855902702221</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>365.708915369595</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>345.3285584995942</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>294.7299352208368</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>221.3299070215255</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>128.7459552216403</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>46.70445075299986</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>8.971968542896622</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1639651589792643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.096613678243984</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>10.59097947146163</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>37.75621655357576</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>103.6059440484809</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>275.1769923091013</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>260.9122903671113</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>209.4051154534499</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>68.08624223342912</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>20.36911810247047</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.42012267678167</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07214563672657791</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9193640701987955</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.17398236958566</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>27.64778494743288</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>64.99903976305484</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>106.8133892467328</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>136.68436367301</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>144.114496931253</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>140.6877763059667</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>129.947932395008</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>111.1929053629525</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>76.9842040963737</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>41.33795173821129</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>16.02200838700991</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>3.928191936303944</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05014713110175254</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32475,7 +32475,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
         <v>691.3565293623194</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34456,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043784</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718112</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997839</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729601</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744186</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040804</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.0183145243146</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>100.6000080559581</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M3" t="n">
-        <v>136.947856498667</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887086</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469684</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P3" t="n">
-        <v>36.95552968331378</v>
+        <v>14.84955516042941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6171412472592124</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945162</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394228</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>13.6224856581357</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>41.7718465704379</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718123</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M5" t="n">
-        <v>131.125993899784</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729602</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744186</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040809</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.01831452431463</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L6" t="n">
-        <v>100.6000080559581</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M6" t="n">
-        <v>136.9478564986671</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N6" t="n">
-        <v>107.447733015229</v>
+        <v>57.82896157694136</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469684</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679324</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6171412472592408</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945191</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394256</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>13.62248565813573</v>
+        <v>3.698987336806027</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>40.62243759887707</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>87.67023285026619</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>129.5393570429493</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>136.2958517730041</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>115.2303470779075</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>63.49693946556727</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>99.55026996340837</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>143.835280225768</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>118.3160459226669</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>75.43070803911962</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>1.799687391771755</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>5.188712983647946</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>13.00223184073349</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
